--- a/Haunted house.xlsx
+++ b/Haunted house.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238608BB-FF78-40AF-AF7D-341D3CEA1C06}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F00D0D-B2A1-4D8F-B866-72D143A67161}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="97">
   <si>
     <t>Object</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>marsh</t>
+  </si>
+  <si>
+    <t>score = 34 (2 for every item, drop boat)</t>
   </si>
 </sst>
 </file>
@@ -632,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1227,7 @@
       <c r="E27">
         <v>25</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G27" t="s">
@@ -1297,6 +1300,11 @@
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
